--- a/Defect_Temp.xlsx
+++ b/Defect_Temp.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
   <si>
     <t>Sr.No</t>
   </si>
@@ -68,6 +71,9 @@
     <t>Environment</t>
   </si>
   <si>
+    <t>Project/Model</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -125,6 +131,9 @@
     <t>(Dev,Live,UAT)</t>
   </si>
   <si>
+    <t>(Name of Model)</t>
+  </si>
+  <si>
     <t>(New, Open, In Progress, Fixed, Closed)</t>
   </si>
   <si>
@@ -141,6 +150,133 @@
   </si>
   <si>
     <t>(Screenshots, logs, or links)</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Historical data index filter not working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When we applying filter on index date and index value; it is not filtering the data as per the applied filter
+</t>
+  </si>
+  <si>
+    <t>1.Login to Drm --drm.samcomf.com
+2.Scroll down and click on Historical index data.
+3.apply filrer of index value or index date
+4.Click on Submit</t>
+  </si>
+  <si>
+    <t>Filter must be working for field index data and index value</t>
+  </si>
+  <si>
+    <t>No data available in table</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Satish Netke</t>
+  </si>
+  <si>
+    <t>24/06/2025</t>
+  </si>
+  <si>
+    <t>Live</t>
+  </si>
+  <si>
+    <t>DRM Website</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Tanuj</t>
+  </si>
+  <si>
+    <t>Refer to this link:-
+https://sam-co.atlassian.net/browse/SMF-1451</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Date field is missing
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Perpetual frequency in start date field date not displayed it directly displayed month.
+</t>
+  </si>
+  <si>
+    <t>1.Login to partner --&gt; https://dev-partners.samcomf.com/investoraccountlist
+2.Click on initiate transaction
+3.select folio and click on Submit.
+4.Choose Scheme(flexi)
+5.Select Investment type SIP
+6.Enter Amount
+7.Select Frequency(Weekly)
+8.Select Day
+9.Select Tenure - Perpetual
+9.Select Start Date</t>
+  </si>
+  <si>
+    <t>Start Date should be there.</t>
+  </si>
+  <si>
+    <t>Start date field not displayed it directly displayed month.</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>Partner(distributor flow)</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mannu </t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Validation Error</t>
+  </si>
+  <si>
+    <t>Validation not working for Select Day.</t>
+  </si>
+  <si>
+    <t>1.Login to partner --&gt; https://dev-partners.samcomf.com/investoraccountlist
+2.Click on initiate transaction
+3.select folio and click on Submit.
+4.Choose Scheme(flexi)
+5.Select Investment type SIP
+6.Enter Amount
+7.Select Frequency(Weekly)
+8.Select Tenure - Date Wise
+9.Select Start Date and End Date
+10.Click on Submit</t>
+  </si>
+  <si>
+    <t>Validation shold be there for Select Day field</t>
+  </si>
+  <si>
+    <t>Navigate to Review page</t>
+  </si>
+  <si>
+    <t>Mannu Rajak</t>
   </si>
 </sst>
 </file>
@@ -154,7 +290,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +308,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.25"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="8" tint="-0.25"/>
       <name val="Calibri"/>
@@ -664,137 +807,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -804,16 +947,49 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1356,13 +1532,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -1370,140 +1546,326 @@
     <col min="4" max="4" width="34.1428571428571" customWidth="1"/>
     <col min="5" max="5" width="27.4285714285714" customWidth="1"/>
     <col min="6" max="6" width="24.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="26.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="27.1428571428571" customWidth="1"/>
     <col min="8" max="8" width="11.2857142857143" customWidth="1"/>
     <col min="9" max="9" width="28.2857142857143" customWidth="1"/>
     <col min="10" max="10" width="30.2857142857143" customWidth="1"/>
-    <col min="11" max="11" width="35.4285714285714" customWidth="1"/>
-    <col min="12" max="12" width="31.4285714285714" customWidth="1"/>
+    <col min="11" max="11" width="32.4285714285714" customWidth="1"/>
+    <col min="12" max="12" width="28.5714285714286" customWidth="1"/>
     <col min="13" max="13" width="14.7142857142857" customWidth="1"/>
-    <col min="14" max="14" width="35.8571428571429" customWidth="1"/>
-    <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="16" width="36.1428571428571" customWidth="1"/>
-    <col min="17" max="17" width="31.1428571428571" customWidth="1"/>
-    <col min="18" max="18" width="26.2857142857143" customWidth="1"/>
-    <col min="19" max="19" width="27.7142857142857" customWidth="1"/>
+    <col min="14" max="14" width="25.1428571428571" customWidth="1"/>
+    <col min="15" max="15" width="26.1428571428571" customWidth="1"/>
+    <col min="16" max="16" width="19" customWidth="1"/>
+    <col min="17" max="17" width="36.1428571428571" customWidth="1"/>
+    <col min="18" max="18" width="31.1428571428571" customWidth="1"/>
+    <col min="19" max="19" width="26.2857142857143" customWidth="1"/>
+    <col min="20" max="20" width="27.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.25" spans="1:19">
+    <row r="1" s="1" customFormat="1" ht="17.25" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:19">
+    <row r="2" s="2" customFormat="1" spans="1:20">
       <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="N2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="O2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="P2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="Q2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="R2" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="2:20">
+      <c r="B3" s="6"/>
+      <c r="T3" s="13"/>
+    </row>
+    <row r="4" customFormat="1" ht="105" spans="1:20">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="14"/>
+      <c r="T4" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" ht="210" spans="1:19">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="11">
+        <v>45695</v>
+      </c>
+      <c r="M6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="11">
+        <v>45723</v>
+      </c>
+      <c r="S6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" ht="225" spans="1:19">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="11">
+        <v>45695</v>
+      </c>
+      <c r="M8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="11">
+        <v>45723</v>
+      </c>
+      <c r="S8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:T8" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Defect_Temp.xlsx
+++ b/Defect_Temp.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
   <si>
     <t>Sr.No</t>
   </si>
@@ -277,6 +277,41 @@
   </si>
   <si>
     <t>Mannu Rajak</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>Maximum number of installment issue</t>
+  </si>
+  <si>
+    <t>Maximum no.of installment exceeds the limit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login to partner --&gt; https://dev-partners.samcomf.com/investoraccountlist
+2.Click on initiate transaction
+3.select folio and click on Submit.
+4.Choose Scheme(flexi)
+5.Select Investment type SIP
+6.Enter Amount
+7.Select Frequency -Weekly(similar for Half Yearly and Daily)
+8.Select Day
+9.Select Tenure - Number of Installment.
+9.Enter no. of installment for weekly(more then 2085)
+10.Click on Submit
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum no.of installment for weekly should be 2085,
+Daily - 14592,
+Half Yearly - 80
+</t>
+  </si>
+  <si>
+    <t>It Maximum no.of installment limit and Navigate to Review page</t>
+  </si>
+  <si>
+    <t>Fahim Shaikh</t>
   </si>
 </sst>
 </file>
@@ -963,13 +998,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1532,13 +1567,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -1700,10 +1735,10 @@
       <c r="C4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -1757,13 +1792,13 @@
       <c r="D6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>59</v>
       </c>
       <c r="F6" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>61</v>
       </c>
       <c r="H6" t="s">
@@ -1779,7 +1814,7 @@
         <v>49</v>
       </c>
       <c r="L6" s="11">
-        <v>45695</v>
+        <v>45723</v>
       </c>
       <c r="M6" t="s">
         <v>62</v>
@@ -1797,7 +1832,7 @@
         <v>49</v>
       </c>
       <c r="R6" s="11">
-        <v>45723</v>
+        <v>45754</v>
       </c>
       <c r="S6" t="s">
         <v>66</v>
@@ -1819,7 +1854,7 @@
       <c r="E8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>71</v>
       </c>
       <c r="G8" s="7" t="s">
@@ -1838,7 +1873,7 @@
         <v>49</v>
       </c>
       <c r="L8" s="11">
-        <v>45695</v>
+        <v>45723</v>
       </c>
       <c r="M8" t="s">
         <v>62</v>
@@ -1856,9 +1891,65 @@
         <v>49</v>
       </c>
       <c r="R8" s="11">
-        <v>45723</v>
+        <v>45754</v>
       </c>
       <c r="S8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" ht="300" spans="1:19">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="11">
+        <v>45754</v>
+      </c>
+      <c r="N10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" s="11">
+        <v>45754</v>
+      </c>
+      <c r="S10" t="s">
         <v>66</v>
       </c>
     </row>

--- a/Defect_Temp.xlsx
+++ b/Defect_Temp.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
   <si>
     <t>Sr.No</t>
   </si>
@@ -68,6 +71,9 @@
     <t>Environment</t>
   </si>
   <si>
+    <t>Project/Model</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -125,6 +131,9 @@
     <t>(Dev,Live,UAT)</t>
   </si>
   <si>
+    <t>(Name of Model)</t>
+  </si>
+  <si>
     <t>(New, Open, In Progress, Fixed, Closed)</t>
   </si>
   <si>
@@ -141,6 +150,168 @@
   </si>
   <si>
     <t>(Screenshots, logs, or links)</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Historical data index filter not working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When we applying filter on index date and index value; it is not filtering the data as per the applied filter
+</t>
+  </si>
+  <si>
+    <t>1.Login to Drm --drm.samcomf.com
+2.Scroll down and click on Historical index data.
+3.apply filrer of index value or index date
+4.Click on Submit</t>
+  </si>
+  <si>
+    <t>Filter must be working for field index data and index value</t>
+  </si>
+  <si>
+    <t>No data available in table</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Satish Netke</t>
+  </si>
+  <si>
+    <t>24/06/2025</t>
+  </si>
+  <si>
+    <t>Live</t>
+  </si>
+  <si>
+    <t>DRM Website</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Tanuj</t>
+  </si>
+  <si>
+    <t>Refer to this link:-
+https://sam-co.atlassian.net/browse/SMF-1451</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Date field is missing
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Perpetual frequency in start date field date not displayed it directly displayed month.
+</t>
+  </si>
+  <si>
+    <t>1.Login to partner --&gt; https://dev-partners.samcomf.com/investoraccountlist
+2.Click on initiate transaction
+3.select folio and click on Submit.
+4.Choose Scheme(flexi)
+5.Select Investment type SIP
+6.Enter Amount
+7.Select Frequency(Weekly)
+8.Select Day
+9.Select Tenure - Perpetual
+9.Select Start Date</t>
+  </si>
+  <si>
+    <t>Start Date should be there.</t>
+  </si>
+  <si>
+    <t>Start date field not displayed it directly displayed month.</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>Partner(distributor flow)</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mannu </t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Validation Error</t>
+  </si>
+  <si>
+    <t>Validation not working for Select Day.</t>
+  </si>
+  <si>
+    <t>1.Login to partner --&gt; https://dev-partners.samcomf.com/investoraccountlist
+2.Click on initiate transaction
+3.select folio and click on Submit.
+4.Choose Scheme(flexi)
+5.Select Investment type SIP
+6.Enter Amount
+7.Select Frequency(Weekly)
+8.Select Tenure - Date Wise
+9.Select Start Date and End Date
+10.Click on Submit</t>
+  </si>
+  <si>
+    <t>Validation shold be there for Select Day field</t>
+  </si>
+  <si>
+    <t>Navigate to Review page</t>
+  </si>
+  <si>
+    <t>Mannu Rajak</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>Maximum number of installment issue</t>
+  </si>
+  <si>
+    <t>Maximum no.of installment exceeds the limit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login to partner --&gt; https://dev-partners.samcomf.com/investoraccountlist
+2.Click on initiate transaction
+3.select folio and click on Submit.
+4.Choose Scheme(flexi)
+5.Select Investment type SIP
+6.Enter Amount
+7.Select Frequency -Weekly(similar for Half Yearly and Daily)
+8.Select Day
+9.Select Tenure - Number of Installment.
+9.Enter no. of installment for weekly(more then 2085)
+10.Click on Submit
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum no.of installment for weekly should be 2085,
+Daily - 14592,
+Half Yearly - 80
+</t>
+  </si>
+  <si>
+    <t>It Maximum no.of installment limit and Navigate to Review page</t>
+  </si>
+  <si>
+    <t>Fahim Shaikh</t>
   </si>
 </sst>
 </file>
@@ -154,7 +325,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +343,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.25"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="8" tint="-0.25"/>
       <name val="Calibri"/>
@@ -664,137 +842,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -804,16 +982,49 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1356,13 +1567,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -1370,140 +1581,382 @@
     <col min="4" max="4" width="34.1428571428571" customWidth="1"/>
     <col min="5" max="5" width="27.4285714285714" customWidth="1"/>
     <col min="6" max="6" width="24.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="26.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="27.1428571428571" customWidth="1"/>
     <col min="8" max="8" width="11.2857142857143" customWidth="1"/>
     <col min="9" max="9" width="28.2857142857143" customWidth="1"/>
     <col min="10" max="10" width="30.2857142857143" customWidth="1"/>
-    <col min="11" max="11" width="35.4285714285714" customWidth="1"/>
-    <col min="12" max="12" width="31.4285714285714" customWidth="1"/>
+    <col min="11" max="11" width="32.4285714285714" customWidth="1"/>
+    <col min="12" max="12" width="28.5714285714286" customWidth="1"/>
     <col min="13" max="13" width="14.7142857142857" customWidth="1"/>
-    <col min="14" max="14" width="35.8571428571429" customWidth="1"/>
-    <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="16" width="36.1428571428571" customWidth="1"/>
-    <col min="17" max="17" width="31.1428571428571" customWidth="1"/>
-    <col min="18" max="18" width="26.2857142857143" customWidth="1"/>
-    <col min="19" max="19" width="27.7142857142857" customWidth="1"/>
+    <col min="14" max="14" width="25.1428571428571" customWidth="1"/>
+    <col min="15" max="15" width="26.1428571428571" customWidth="1"/>
+    <col min="16" max="16" width="19" customWidth="1"/>
+    <col min="17" max="17" width="36.1428571428571" customWidth="1"/>
+    <col min="18" max="18" width="31.1428571428571" customWidth="1"/>
+    <col min="19" max="19" width="26.2857142857143" customWidth="1"/>
+    <col min="20" max="20" width="27.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.25" spans="1:19">
+    <row r="1" s="1" customFormat="1" ht="17.25" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:19">
+    <row r="2" s="2" customFormat="1" spans="1:20">
       <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="N2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="O2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="P2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="Q2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="R2" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="2:20">
+      <c r="B3" s="6"/>
+      <c r="T3" s="13"/>
+    </row>
+    <row r="4" customFormat="1" ht="105" spans="1:20">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="14"/>
+      <c r="T4" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" ht="210" spans="1:19">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="11">
+        <v>45723</v>
+      </c>
+      <c r="M6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="11">
+        <v>45754</v>
+      </c>
+      <c r="S6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" ht="225" spans="1:19">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="11">
+        <v>45723</v>
+      </c>
+      <c r="M8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="11">
+        <v>45754</v>
+      </c>
+      <c r="S8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" ht="300" spans="1:19">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="11">
+        <v>45754</v>
+      </c>
+      <c r="N10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" s="11">
+        <v>45754</v>
+      </c>
+      <c r="S10" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:T8" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Defect_Temp.xlsx
+++ b/Defect_Temp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
   <si>
     <t>Sr.No</t>
   </si>
@@ -68,6 +68,9 @@
     <t>Environment</t>
   </si>
   <si>
+    <t>Project/Model</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
     <t>(Dev,Live,UAT)</t>
   </si>
   <si>
+    <t>(Name of Model)</t>
+  </si>
+  <si>
     <t>(New, Open, In Progress, Fixed, Closed)</t>
   </si>
   <si>
@@ -141,20 +147,183 @@
   </si>
   <si>
     <t>(Screenshots, logs, or links)</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Historical data index filter not working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When we applying filter on index date and index value; it is not filtering the data as per the applied filter
+</t>
+  </si>
+  <si>
+    <t>1.Login to Drm --drm.samcomf.com
+2.Scroll down and click on Historical index data.
+3.apply filrer of index value or index date
+4.Click on Submit</t>
+  </si>
+  <si>
+    <t>Filter must be working for field index data and index value</t>
+  </si>
+  <si>
+    <t>No data available in table</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Satish Netke</t>
+  </si>
+  <si>
+    <t>24/06/2025</t>
+  </si>
+  <si>
+    <t>Live</t>
+  </si>
+  <si>
+    <t>DRM Website</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Tanuj</t>
+  </si>
+  <si>
+    <t>Refer to this link:-
+https://sam-co.atlassian.net/browse/SMF-1451</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Date field is missing
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Perpetual frequency in start date field date not displayed it directly displayed month.
+</t>
+  </si>
+  <si>
+    <t>1.Login to partner --&gt; https://dev-partners.samcomf.com/investoraccountlist
+2.Click on initiate transaction
+3.select folio and click on Submit.
+4.Choose Scheme(flexi)
+5.Select Investment type SIP
+6.Enter Amount
+7.Select Frequency(Weekly)
+8.Select Day
+9.Select Tenure - Perpetual
+9.Select Start Date</t>
+  </si>
+  <si>
+    <t>Start Date should be there.</t>
+  </si>
+  <si>
+    <t>Start date field not displayed it directly displayed month.</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>Partner(distributor flow)</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mannu </t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Validation Error</t>
+  </si>
+  <si>
+    <t>Validation not working for Select Day.</t>
+  </si>
+  <si>
+    <t>1.Login to partner --&gt; https://dev-partners.samcomf.com/investoraccountlist
+2.Click on initiate transaction
+3.select folio and click on Submit.
+4.Choose Scheme(flexi)
+5.Select Investment type SIP
+6.Enter Amount
+7.Select Frequency(Weekly)
+8.Select Tenure - Date Wise
+9.Select Start Date and End Date
+10.Click on Submit</t>
+  </si>
+  <si>
+    <t>Validation shold be there for Select Day field</t>
+  </si>
+  <si>
+    <t>Navigate to Review page</t>
+  </si>
+  <si>
+    <t>Mannu Rajak</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>Maximum number of installment issue</t>
+  </si>
+  <si>
+    <t>Maximum no.of installment exceeds the limit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login to partner --&gt; https://dev-partners.samcomf.com/investoraccountlist
+2.Click on initiate transaction
+3.select folio and click on Submit.
+4.Choose Scheme(flexi)
+5.Select Investment type SIP
+6.Enter Amount
+7.Select Frequency -Weekly(similar for Half Yearly and Daily)
+8.Select Day
+9.Select Tenure - Number of Installment.
+9.Enter no. of installment for weekly(more then 2085)
+10.Click on Submit
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum no.of installment for weekly should be 2085,
+Daily - 14592,
+Half Yearly - 80
+</t>
+  </si>
+  <si>
+    <t>It Maximum no.of installment limit and Navigate to Review page</t>
+  </si>
+  <si>
+    <t>Fahim Shaikh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="181" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +341,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.25"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="8" tint="-0.25"/>
       <name val="Calibri"/>
@@ -652,149 +828,149 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -804,16 +980,46 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1356,13 +1562,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -1370,137 +1576,379 @@
     <col min="4" max="4" width="34.1428571428571" customWidth="1"/>
     <col min="5" max="5" width="27.4285714285714" customWidth="1"/>
     <col min="6" max="6" width="24.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="26.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="27.1428571428571" customWidth="1"/>
     <col min="8" max="8" width="11.2857142857143" customWidth="1"/>
     <col min="9" max="9" width="28.2857142857143" customWidth="1"/>
     <col min="10" max="10" width="30.2857142857143" customWidth="1"/>
-    <col min="11" max="11" width="35.4285714285714" customWidth="1"/>
-    <col min="12" max="12" width="31.4285714285714" customWidth="1"/>
+    <col min="11" max="11" width="32.4285714285714" customWidth="1"/>
+    <col min="12" max="12" width="28.5714285714286" customWidth="1"/>
     <col min="13" max="13" width="14.7142857142857" customWidth="1"/>
-    <col min="14" max="14" width="35.8571428571429" customWidth="1"/>
-    <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="16" width="36.1428571428571" customWidth="1"/>
-    <col min="17" max="17" width="31.1428571428571" customWidth="1"/>
-    <col min="18" max="18" width="26.2857142857143" customWidth="1"/>
-    <col min="19" max="19" width="27.7142857142857" customWidth="1"/>
+    <col min="14" max="14" width="25.1428571428571" customWidth="1"/>
+    <col min="15" max="15" width="26.1428571428571" customWidth="1"/>
+    <col min="16" max="16" width="19" customWidth="1"/>
+    <col min="17" max="17" width="36.1428571428571" customWidth="1"/>
+    <col min="18" max="18" width="31.1428571428571" customWidth="1"/>
+    <col min="19" max="19" width="26.2857142857143" customWidth="1"/>
+    <col min="20" max="20" width="27.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.25" spans="1:19">
+    <row r="1" s="1" customFormat="1" ht="17.25" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:19">
+    <row r="2" s="2" customFormat="1" spans="1:20">
       <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="N2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="O2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="P2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="Q2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="R2" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="2:20">
+      <c r="B3" s="6"/>
+      <c r="T3" s="12"/>
+    </row>
+    <row r="4" customFormat="1" ht="105" spans="1:20">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="13"/>
+      <c r="T4" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1"/>
+    <row r="6" customFormat="1" ht="210" spans="1:19">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="10">
+        <v>45723</v>
+      </c>
+      <c r="M6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="10">
+        <v>45754</v>
+      </c>
+      <c r="S6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1"/>
+    <row r="8" customFormat="1" ht="225" spans="1:19">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="10">
+        <v>45723</v>
+      </c>
+      <c r="M8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="10">
+        <v>45754</v>
+      </c>
+      <c r="S8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1"/>
+    <row r="10" customFormat="1" ht="300" spans="1:19">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="10">
+        <v>45754</v>
+      </c>
+      <c r="N10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" s="10">
+        <v>45754</v>
+      </c>
+      <c r="S10" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Defect_Temp.xlsx
+++ b/Defect_Temp.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$8</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
   <si>
     <t>Sr.No</t>
   </si>
@@ -247,6 +244,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>https://sam-co.atlassian.net/browse/SMF-1466?atlOrigin=eyJpIjoiZTNiMjgyMjYzY2ViNDY1ZThhZTBhMzdmZmRmMTI0ZjkiLCJwIjoiaiJ9</t>
   </si>
   <si>
     <t>003</t>
@@ -318,12 +318,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1003,19 +1004,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -1569,8 +1570,8 @@
   <sheetPr/>
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1717,13 +1718,13 @@
       <c r="S2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="2:20">
       <c r="B3" s="6"/>
-      <c r="T3" s="13"/>
+      <c r="T3" s="12"/>
     </row>
     <row r="4" customFormat="1" ht="105" spans="1:20">
       <c r="A4">
@@ -1759,7 +1760,7 @@
       <c r="K4" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>50</v>
       </c>
       <c r="M4" t="s">
@@ -1774,12 +1775,12 @@
       <c r="P4" t="s">
         <v>54</v>
       </c>
-      <c r="Q4" s="14"/>
+      <c r="Q4" s="13"/>
       <c r="T4" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" ht="210" spans="1:19">
+    <row r="6" customFormat="1" ht="210" spans="1:20">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1813,7 +1814,7 @@
       <c r="K6" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <v>45723</v>
       </c>
       <c r="M6" t="s">
@@ -1831,34 +1832,37 @@
       <c r="Q6" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="10">
         <v>45754</v>
       </c>
       <c r="S6" t="s">
         <v>66</v>
       </c>
+      <c r="T6" s="14" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="8" ht="225" spans="1:19">
+    <row r="8" customFormat="1" ht="225" spans="1:20">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
         <v>46</v>
@@ -1872,7 +1876,7 @@
       <c r="K8" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <v>45723</v>
       </c>
       <c r="M8" t="s">
@@ -1885,39 +1889,42 @@
         <v>64</v>
       </c>
       <c r="P8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q8" t="s">
         <v>49</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="10">
         <v>45754</v>
       </c>
       <c r="S8" t="s">
         <v>66</v>
       </c>
+      <c r="T8" s="14" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="10" ht="300" spans="1:19">
+    <row r="10" customFormat="1" ht="300" spans="1:20">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>76</v>
       </c>
+      <c r="D10" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="7" t="s">
         <v>79</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="H10" t="s">
         <v>46</v>
@@ -1929,9 +1936,9 @@
         <v>48</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
-      </c>
-      <c r="L10" s="11">
+        <v>81</v>
+      </c>
+      <c r="L10" s="10">
         <v>45754</v>
       </c>
       <c r="N10" t="s">
@@ -1941,22 +1948,27 @@
         <v>53</v>
       </c>
       <c r="P10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q10" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" s="11">
+        <v>81</v>
+      </c>
+      <c r="R10" s="10">
         <v>45754</v>
       </c>
       <c r="S10" t="s">
         <v>66</v>
       </c>
+      <c r="T10" s="14" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:T8" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="T6" r:id="rId1" display="https://sam-co.atlassian.net/browse/SMF-1466?atlOrigin=eyJpIjoiZTNiMjgyMjYzY2ViNDY1ZThhZTBhMzdmZmRmMTI0ZjkiLCJwIjoiaiJ9"/>
+    <hyperlink ref="T8" r:id="rId1" display="https://sam-co.atlassian.net/browse/SMF-1466?atlOrigin=eyJpIjoiZTNiMjgyMjYzY2ViNDY1ZThhZTBhMzdmZmRmMTI0ZjkiLCJwIjoiaiJ9"/>
+    <hyperlink ref="T10" r:id="rId1" display="https://sam-co.atlassian.net/browse/SMF-1466?atlOrigin=eyJpIjoiZTNiMjgyMjYzY2ViNDY1ZThhZTBhMzdmZmRmMTI0ZjkiLCJwIjoiaiJ9"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
